--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>5.44544794321021</v>
+        <v>0.078566</v>
       </c>
       <c r="N2">
-        <v>5.44544794321021</v>
+        <v>0.157132</v>
       </c>
       <c r="O2">
-        <v>0.3547362627792816</v>
+        <v>0.004019777884324683</v>
       </c>
       <c r="P2">
-        <v>0.3547362627792816</v>
+        <v>0.002683447543913378</v>
       </c>
       <c r="Q2">
-        <v>554.7421874734864</v>
+        <v>8.005274016553001</v>
       </c>
       <c r="R2">
-        <v>554.7421874734864</v>
+        <v>32.021096066212</v>
       </c>
       <c r="S2">
-        <v>0.06981981406454361</v>
+        <v>0.0007612853544202576</v>
       </c>
       <c r="T2">
-        <v>0.06981981406454361</v>
+        <v>0.0003707497822535514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>9.905246402347551</v>
+        <v>0.559584</v>
       </c>
       <c r="N3">
-        <v>9.905246402347551</v>
+        <v>1.678752</v>
       </c>
       <c r="O3">
-        <v>0.6452637372207184</v>
+        <v>0.02863074851235832</v>
       </c>
       <c r="P3">
-        <v>0.6452637372207184</v>
+        <v>0.02866916306824626</v>
       </c>
       <c r="Q3">
-        <v>1009.073654547292</v>
+        <v>57.017326264272</v>
       </c>
       <c r="R3">
-        <v>1009.073654547292</v>
+        <v>342.103957585632</v>
       </c>
       <c r="S3">
-        <v>0.1270019416745526</v>
+        <v>0.005422232311278484</v>
       </c>
       <c r="T3">
-        <v>0.1270019416745526</v>
+        <v>0.003960981457995278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.219060028936</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>64.219060028936</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1240736224592821</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1240736224592821</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.44544794321021</v>
+        <v>8.038439</v>
       </c>
       <c r="N4">
-        <v>5.44544794321021</v>
+        <v>24.115317</v>
       </c>
       <c r="O4">
-        <v>0.3547362627792816</v>
+        <v>0.4112814616588986</v>
       </c>
       <c r="P4">
-        <v>0.3547362627792816</v>
+        <v>0.4118332877729713</v>
       </c>
       <c r="Q4">
-        <v>349.7015483494625</v>
+        <v>819.0554038686746</v>
       </c>
       <c r="R4">
-        <v>349.7015483494625</v>
+        <v>4914.332423212048</v>
       </c>
       <c r="S4">
-        <v>0.04401341314069328</v>
+        <v>0.07789051094749154</v>
       </c>
       <c r="T4">
-        <v>0.04401341314069328</v>
+        <v>0.05689960368814352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.219060028936</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>64.219060028936</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1240736224592821</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1240736224592821</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.905246402347551</v>
+        <v>10.817615</v>
       </c>
       <c r="N5">
-        <v>9.905246402347551</v>
+        <v>32.452845</v>
       </c>
       <c r="O5">
-        <v>0.6452637372207184</v>
+        <v>0.5534761797487329</v>
       </c>
       <c r="P5">
-        <v>0.6452637372207184</v>
+        <v>0.5542187918963135</v>
       </c>
       <c r="Q5">
-        <v>636.1056133137597</v>
+        <v>1102.232165065982</v>
       </c>
       <c r="R5">
-        <v>636.1056133137597</v>
+        <v>6613.392990395894</v>
       </c>
       <c r="S5">
-        <v>0.08006020931858886</v>
+        <v>0.1048200477211121</v>
       </c>
       <c r="T5">
-        <v>0.08006020931858886</v>
+        <v>0.07657183270917607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.929177047166</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>143.929177047166</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.278076545589095</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.278076545589095</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.44544794321021</v>
+        <v>0.050657</v>
       </c>
       <c r="N6">
-        <v>5.44544794321021</v>
+        <v>0.151971</v>
       </c>
       <c r="O6">
-        <v>0.3547362627792816</v>
+        <v>0.002591832195685608</v>
       </c>
       <c r="P6">
-        <v>0.3547362627792816</v>
+        <v>0.002595309718555482</v>
       </c>
       <c r="Q6">
-        <v>783.7588411194283</v>
+        <v>5.1615605459935</v>
       </c>
       <c r="R6">
-        <v>783.7588411194283</v>
+        <v>30.969363275961</v>
       </c>
       <c r="S6">
-        <v>0.09864383454884809</v>
+        <v>0.0004908539597137055</v>
       </c>
       <c r="T6">
-        <v>0.09864383454884809</v>
+        <v>0.0003585725069295526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.929177047166</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H7">
-        <v>143.929177047166</v>
+        <v>216.91135</v>
       </c>
       <c r="I7">
-        <v>0.278076545589095</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J7">
-        <v>0.278076545589095</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>9.905246402347551</v>
+        <v>0.078566</v>
       </c>
       <c r="N7">
-        <v>9.905246402347551</v>
+        <v>0.157132</v>
       </c>
       <c r="O7">
-        <v>0.6452637372207184</v>
+        <v>0.004019777884324683</v>
       </c>
       <c r="P7">
-        <v>0.6452637372207184</v>
+        <v>0.002683447543913378</v>
       </c>
       <c r="Q7">
-        <v>1425.653963139285</v>
+        <v>5.680619041366666</v>
       </c>
       <c r="R7">
-        <v>1425.653963139285</v>
+        <v>34.0837142482</v>
       </c>
       <c r="S7">
-        <v>0.1794327110402469</v>
+        <v>0.0005402153719274444</v>
       </c>
       <c r="T7">
-        <v>0.1794327110402469</v>
+        <v>0.0003946313895621525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.23418631676989</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>84.23418631676989</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1627435939816402</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1627435939816402</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.44544794321021</v>
+        <v>0.559584</v>
       </c>
       <c r="N8">
-        <v>5.44544794321021</v>
+        <v>1.678752</v>
       </c>
       <c r="O8">
-        <v>0.3547362627792816</v>
+        <v>0.02863074851235832</v>
       </c>
       <c r="P8">
-        <v>0.3547362627792816</v>
+        <v>0.02866916306824626</v>
       </c>
       <c r="Q8">
-        <v>458.6928766266402</v>
+        <v>40.4600402928</v>
       </c>
       <c r="R8">
-        <v>458.6928766266402</v>
+        <v>364.1403626352</v>
       </c>
       <c r="S8">
-        <v>0.05773105432031581</v>
+        <v>0.003847667931225301</v>
       </c>
       <c r="T8">
-        <v>0.05773105432031581</v>
+        <v>0.004216125515428065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.23418631676989</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>84.23418631676989</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1627435939816402</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1627435939816402</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.905246402347551</v>
+        <v>8.038439</v>
       </c>
       <c r="N9">
-        <v>9.905246402347551</v>
+        <v>24.115317</v>
       </c>
       <c r="O9">
-        <v>0.6452637372207184</v>
+        <v>0.4112814616588986</v>
       </c>
       <c r="P9">
-        <v>0.6452637372207184</v>
+        <v>0.4118332877729713</v>
       </c>
       <c r="Q9">
-        <v>834.3603709688583</v>
+        <v>581.2095517942166</v>
       </c>
       <c r="R9">
-        <v>834.3603709688583</v>
+        <v>5230.88596614795</v>
       </c>
       <c r="S9">
-        <v>0.1050125396613243</v>
+        <v>0.05527185187105203</v>
       </c>
       <c r="T9">
-        <v>0.1050125396613243</v>
+        <v>0.06056475483950946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,122 +1030,122 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.9179255355687</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>86.9179255355687</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1679286783859023</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1679286783859023</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.44544794321021</v>
+        <v>10.817615</v>
       </c>
       <c r="N10">
-        <v>5.44544794321021</v>
+        <v>32.452845</v>
       </c>
       <c r="O10">
-        <v>0.3547362627792816</v>
+        <v>0.5534761797487329</v>
       </c>
       <c r="P10">
-        <v>0.3547362627792816</v>
+        <v>0.5542187918963135</v>
       </c>
       <c r="Q10">
-        <v>473.3070388357607</v>
+        <v>782.1544911434165</v>
       </c>
       <c r="R10">
-        <v>473.3070388357607</v>
+        <v>7039.390420290749</v>
       </c>
       <c r="S10">
-        <v>0.05957039178407892</v>
+        <v>0.07438130884342972</v>
       </c>
       <c r="T10">
-        <v>0.05957039178407892</v>
+        <v>0.08150415776286914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.9179255355687</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>86.9179255355687</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1679286783859023</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1679286783859023</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>9.905246402347551</v>
+        <v>0.050657</v>
       </c>
       <c r="N11">
-        <v>9.905246402347551</v>
+        <v>0.151971</v>
       </c>
       <c r="O11">
-        <v>0.6452637372207184</v>
+        <v>0.002591832195685608</v>
       </c>
       <c r="P11">
-        <v>0.6452637372207184</v>
+        <v>0.002595309718555482</v>
       </c>
       <c r="Q11">
-        <v>860.9434692107042</v>
+        <v>3.662692752316667</v>
       </c>
       <c r="R11">
-        <v>860.9434692107042</v>
+        <v>32.96423477085</v>
       </c>
       <c r="S11">
-        <v>0.1083582866018234</v>
+        <v>0.0003483146665953281</v>
       </c>
       <c r="T11">
-        <v>0.1083582866018234</v>
+        <v>0.0003816697229281743</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.4153435754473</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H12">
-        <v>36.4153435754473</v>
+        <v>456.22136</v>
       </c>
       <c r="I12">
-        <v>0.07035580384498431</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J12">
-        <v>0.07035580384498431</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>5.44544794321021</v>
+        <v>0.078566</v>
       </c>
       <c r="N12">
-        <v>5.44544794321021</v>
+        <v>0.157132</v>
       </c>
       <c r="O12">
-        <v>0.3547362627792816</v>
+        <v>0.004019777884324683</v>
       </c>
       <c r="P12">
-        <v>0.3547362627792816</v>
+        <v>0.002683447543913378</v>
       </c>
       <c r="Q12">
-        <v>198.2978577742126</v>
+        <v>11.94782912325333</v>
       </c>
       <c r="R12">
-        <v>198.2978577742126</v>
+        <v>71.68697473952</v>
       </c>
       <c r="S12">
-        <v>0.02495775492080195</v>
+        <v>0.001136214364410366</v>
       </c>
       <c r="T12">
-        <v>0.02495775492080195</v>
+        <v>0.0008300131332211755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>152.0737866666667</v>
+      </c>
+      <c r="H13">
+        <v>456.22136</v>
+      </c>
+      <c r="I13">
+        <v>0.2826560066517826</v>
+      </c>
+      <c r="J13">
+        <v>0.3093084994725608</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.559584</v>
+      </c>
+      <c r="N13">
+        <v>1.678752</v>
+      </c>
+      <c r="O13">
+        <v>0.02863074851235832</v>
+      </c>
+      <c r="P13">
+        <v>0.02866916306824626</v>
+      </c>
+      <c r="Q13">
+        <v>85.09805783808</v>
+      </c>
+      <c r="R13">
+        <v>765.88252054272</v>
+      </c>
+      <c r="S13">
+        <v>0.008092653041954669</v>
+      </c>
+      <c r="T13">
+        <v>0.008867615809773407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>152.0737866666667</v>
+      </c>
+      <c r="H14">
+        <v>456.22136</v>
+      </c>
+      <c r="I14">
+        <v>0.2826560066517826</v>
+      </c>
+      <c r="J14">
+        <v>0.3093084994725608</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.038439</v>
+      </c>
+      <c r="N14">
+        <v>24.115317</v>
+      </c>
+      <c r="O14">
+        <v>0.4112814616588986</v>
+      </c>
+      <c r="P14">
+        <v>0.4118332877729713</v>
+      </c>
+      <c r="Q14">
+        <v>1222.435857619013</v>
+      </c>
+      <c r="R14">
+        <v>11001.92271857112</v>
+      </c>
+      <c r="S14">
+        <v>0.1162511755624125</v>
+      </c>
+      <c r="T14">
+        <v>0.1273835362739091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>152.0737866666667</v>
+      </c>
+      <c r="H15">
+        <v>456.22136</v>
+      </c>
+      <c r="I15">
+        <v>0.2826560066517826</v>
+      </c>
+      <c r="J15">
+        <v>0.3093084994725608</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.817615</v>
+      </c>
+      <c r="N15">
+        <v>32.452845</v>
+      </c>
+      <c r="O15">
+        <v>0.5534761797487329</v>
+      </c>
+      <c r="P15">
+        <v>0.5542187918963135</v>
+      </c>
+      <c r="Q15">
+        <v>1645.075675752133</v>
+      </c>
+      <c r="R15">
+        <v>14805.6810817692</v>
+      </c>
+      <c r="S15">
+        <v>0.1564433667446611</v>
+      </c>
+      <c r="T15">
+        <v>0.1714245829009442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>152.0737866666667</v>
+      </c>
+      <c r="H16">
+        <v>456.22136</v>
+      </c>
+      <c r="I16">
+        <v>0.2826560066517826</v>
+      </c>
+      <c r="J16">
+        <v>0.3093084994725608</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.050657</v>
+      </c>
+      <c r="N16">
+        <v>0.151971</v>
+      </c>
+      <c r="O16">
+        <v>0.002591832195685608</v>
+      </c>
+      <c r="P16">
+        <v>0.002595309718555482</v>
+      </c>
+      <c r="Q16">
+        <v>7.703601811173334</v>
+      </c>
+      <c r="R16">
+        <v>69.33241630056</v>
+      </c>
+      <c r="S16">
+        <v>0.0007325969383440156</v>
+      </c>
+      <c r="T16">
+        <v>0.0008027513547129501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>85.58353199999999</v>
+      </c>
+      <c r="H17">
+        <v>256.750596</v>
+      </c>
+      <c r="I17">
+        <v>0.1590721183480431</v>
+      </c>
+      <c r="J17">
+        <v>0.1740715112230731</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.078566</v>
+      </c>
+      <c r="N17">
+        <v>0.157132</v>
+      </c>
+      <c r="O17">
+        <v>0.004019777884324683</v>
+      </c>
+      <c r="P17">
+        <v>0.002683447543913378</v>
+      </c>
+      <c r="Q17">
+        <v>6.723955775111999</v>
+      </c>
+      <c r="R17">
+        <v>40.343734650672</v>
+      </c>
+      <c r="S17">
+        <v>0.0006394345833481422</v>
+      </c>
+      <c r="T17">
+        <v>0.0004671117692568454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>85.58353199999999</v>
+      </c>
+      <c r="H18">
+        <v>256.750596</v>
+      </c>
+      <c r="I18">
+        <v>0.1590721183480431</v>
+      </c>
+      <c r="J18">
+        <v>0.1740715112230731</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.559584</v>
+      </c>
+      <c r="N18">
+        <v>1.678752</v>
+      </c>
+      <c r="O18">
+        <v>0.02863074851235832</v>
+      </c>
+      <c r="P18">
+        <v>0.02866916306824626</v>
+      </c>
+      <c r="Q18">
+        <v>47.89117517068799</v>
+      </c>
+      <c r="R18">
+        <v>431.020576536192</v>
+      </c>
+      <c r="S18">
+        <v>0.00455435381575092</v>
+      </c>
+      <c r="T18">
+        <v>0.004990484540790341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>85.58353199999999</v>
+      </c>
+      <c r="H19">
+        <v>256.750596</v>
+      </c>
+      <c r="I19">
+        <v>0.1590721183480431</v>
+      </c>
+      <c r="J19">
+        <v>0.1740715112230731</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.038439</v>
+      </c>
+      <c r="N19">
+        <v>24.115317</v>
+      </c>
+      <c r="O19">
+        <v>0.4112814616588986</v>
+      </c>
+      <c r="P19">
+        <v>0.4118332877729713</v>
+      </c>
+      <c r="Q19">
+        <v>687.9580013865479</v>
+      </c>
+      <c r="R19">
+        <v>6191.622012478932</v>
+      </c>
+      <c r="S19">
+        <v>0.06542341334336044</v>
+      </c>
+      <c r="T19">
+        <v>0.07168844277460787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>85.58353199999999</v>
+      </c>
+      <c r="H20">
+        <v>256.750596</v>
+      </c>
+      <c r="I20">
+        <v>0.1590721183480431</v>
+      </c>
+      <c r="J20">
+        <v>0.1740715112230731</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.817615</v>
+      </c>
+      <c r="N20">
+        <v>32.452845</v>
+      </c>
+      <c r="O20">
+        <v>0.5534761797487329</v>
+      </c>
+      <c r="P20">
+        <v>0.5542187918963135</v>
+      </c>
+      <c r="Q20">
+        <v>925.8096995161798</v>
+      </c>
+      <c r="R20">
+        <v>8332.287295645618</v>
+      </c>
+      <c r="S20">
+        <v>0.08804262836781318</v>
+      </c>
+      <c r="T20">
+        <v>0.09647370265361714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>85.58353199999999</v>
+      </c>
+      <c r="H21">
+        <v>256.750596</v>
+      </c>
+      <c r="I21">
+        <v>0.1590721183480431</v>
+      </c>
+      <c r="J21">
+        <v>0.1740715112230731</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.050657</v>
+      </c>
+      <c r="N21">
+        <v>0.151971</v>
+      </c>
+      <c r="O21">
+        <v>0.002591832195685608</v>
+      </c>
+      <c r="P21">
+        <v>0.002595309718555482</v>
+      </c>
+      <c r="Q21">
+        <v>4.335404980523999</v>
+      </c>
+      <c r="R21">
+        <v>39.01864482471599</v>
+      </c>
+      <c r="S21">
+        <v>0.0004122882377703693</v>
+      </c>
+      <c r="T21">
+        <v>0.0004517694848008812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>88.97649266666667</v>
+      </c>
+      <c r="H22">
+        <v>266.929478</v>
+      </c>
+      <c r="I22">
+        <v>0.1653785353432923</v>
+      </c>
+      <c r="J22">
+        <v>0.180972579418846</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.078566</v>
+      </c>
+      <c r="N22">
+        <v>0.157132</v>
+      </c>
+      <c r="O22">
+        <v>0.004019777884324683</v>
+      </c>
+      <c r="P22">
+        <v>0.002683447543913378</v>
+      </c>
+      <c r="Q22">
+        <v>6.990527122849334</v>
+      </c>
+      <c r="R22">
+        <v>41.943162737096</v>
+      </c>
+      <c r="S22">
+        <v>0.0006647849789149743</v>
+      </c>
+      <c r="T22">
+        <v>0.000485630423757171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>88.97649266666667</v>
+      </c>
+      <c r="H23">
+        <v>266.929478</v>
+      </c>
+      <c r="I23">
+        <v>0.1653785353432923</v>
+      </c>
+      <c r="J23">
+        <v>0.180972579418846</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.559584</v>
+      </c>
+      <c r="N23">
+        <v>1.678752</v>
+      </c>
+      <c r="O23">
+        <v>0.02863074851235832</v>
+      </c>
+      <c r="P23">
+        <v>0.02866916306824626</v>
+      </c>
+      <c r="Q23">
+        <v>49.789821672384</v>
+      </c>
+      <c r="R23">
+        <v>448.1083950514561</v>
+      </c>
+      <c r="S23">
+        <v>0.004734911254755962</v>
+      </c>
+      <c r="T23">
+        <v>0.005188332390240043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>88.97649266666667</v>
+      </c>
+      <c r="H24">
+        <v>266.929478</v>
+      </c>
+      <c r="I24">
+        <v>0.1653785353432923</v>
+      </c>
+      <c r="J24">
+        <v>0.180972579418846</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.038439</v>
+      </c>
+      <c r="N24">
+        <v>24.115317</v>
+      </c>
+      <c r="O24">
+        <v>0.4112814616588986</v>
+      </c>
+      <c r="P24">
+        <v>0.4118332877729713</v>
+      </c>
+      <c r="Q24">
+        <v>715.2321087349474</v>
+      </c>
+      <c r="R24">
+        <v>6437.088978614526</v>
+      </c>
+      <c r="S24">
+        <v>0.06801712574299706</v>
+      </c>
+      <c r="T24">
+        <v>0.07453053237881851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>88.97649266666667</v>
+      </c>
+      <c r="H25">
+        <v>266.929478</v>
+      </c>
+      <c r="I25">
+        <v>0.1653785353432923</v>
+      </c>
+      <c r="J25">
+        <v>0.180972579418846</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.817615</v>
+      </c>
+      <c r="N25">
+        <v>32.452845</v>
+      </c>
+      <c r="O25">
+        <v>0.5534761797487329</v>
+      </c>
+      <c r="P25">
+        <v>0.5542187918963135</v>
+      </c>
+      <c r="Q25">
+        <v>962.5134417183233</v>
+      </c>
+      <c r="R25">
+        <v>8662.62097546491</v>
+      </c>
+      <c r="S25">
+        <v>0.09153307995424621</v>
+      </c>
+      <c r="T25">
+        <v>0.1002984043318725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>88.97649266666667</v>
+      </c>
+      <c r="H26">
+        <v>266.929478</v>
+      </c>
+      <c r="I26">
+        <v>0.1653785353432923</v>
+      </c>
+      <c r="J26">
+        <v>0.180972579418846</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.050657</v>
+      </c>
+      <c r="N26">
+        <v>0.151971</v>
+      </c>
+      <c r="O26">
+        <v>0.002591832195685608</v>
+      </c>
+      <c r="P26">
+        <v>0.002595309718555482</v>
+      </c>
+      <c r="Q26">
+        <v>4.507282189015334</v>
+      </c>
+      <c r="R26">
+        <v>40.565539701138</v>
+      </c>
+      <c r="S26">
+        <v>0.0004286334123780751</v>
+      </c>
+      <c r="T26">
+        <v>0.0004696798941577848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>37.1872365</v>
+      </c>
+      <c r="H27">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="I27">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="J27">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.078566</v>
+      </c>
+      <c r="N27">
+        <v>0.157132</v>
+      </c>
+      <c r="O27">
+        <v>0.004019777884324683</v>
+      </c>
+      <c r="P27">
+        <v>0.002683447543913378</v>
+      </c>
+      <c r="Q27">
+        <v>2.921652422859</v>
+      </c>
+      <c r="R27">
+        <v>11.686609691436</v>
+      </c>
+      <c r="S27">
+        <v>0.000277843231303498</v>
+      </c>
+      <c r="T27">
+        <v>0.0001353110458624816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.1872365</v>
+      </c>
+      <c r="H28">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="I28">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="J28">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.559584</v>
+      </c>
+      <c r="N28">
+        <v>1.678752</v>
+      </c>
+      <c r="O28">
+        <v>0.02863074851235832</v>
+      </c>
+      <c r="P28">
+        <v>0.02866916306824626</v>
+      </c>
+      <c r="Q28">
+        <v>20.809382549616</v>
+      </c>
+      <c r="R28">
+        <v>124.856295297696</v>
+      </c>
+      <c r="S28">
+        <v>0.001978930157392977</v>
+      </c>
+      <c r="T28">
+        <v>0.001445623354019122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>37.1872365</v>
+      </c>
+      <c r="H29">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="I29">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="J29">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.038439</v>
+      </c>
+      <c r="N29">
+        <v>24.115317</v>
+      </c>
+      <c r="O29">
+        <v>0.4112814616588986</v>
+      </c>
+      <c r="P29">
+        <v>0.4118332877729713</v>
+      </c>
+      <c r="Q29">
+        <v>298.9273321838235</v>
+      </c>
+      <c r="R29">
+        <v>1793.563993102941</v>
+      </c>
+      <c r="S29">
+        <v>0.0284273841915849</v>
+      </c>
+      <c r="T29">
+        <v>0.02076641781798286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>36.4153435754473</v>
-      </c>
-      <c r="H13">
-        <v>36.4153435754473</v>
-      </c>
-      <c r="I13">
-        <v>0.07035580384498431</v>
-      </c>
-      <c r="J13">
-        <v>0.07035580384498431</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.905246402347551</v>
-      </c>
-      <c r="N13">
-        <v>9.905246402347551</v>
-      </c>
-      <c r="O13">
-        <v>0.6452637372207184</v>
-      </c>
-      <c r="P13">
-        <v>0.6452637372207184</v>
-      </c>
-      <c r="Q13">
-        <v>360.7029509409494</v>
-      </c>
-      <c r="R13">
-        <v>360.7029509409494</v>
-      </c>
-      <c r="S13">
-        <v>0.04539804892418237</v>
-      </c>
-      <c r="T13">
-        <v>0.04539804892418237</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>37.1872365</v>
+      </c>
+      <c r="H30">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="I30">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="J30">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.817615</v>
+      </c>
+      <c r="N30">
+        <v>32.452845</v>
+      </c>
+      <c r="O30">
+        <v>0.5534761797487329</v>
+      </c>
+      <c r="P30">
+        <v>0.5542187918963135</v>
+      </c>
+      <c r="Q30">
+        <v>402.2772073709474</v>
+      </c>
+      <c r="R30">
+        <v>2413.663244225685</v>
+      </c>
+      <c r="S30">
+        <v>0.03825574811747052</v>
+      </c>
+      <c r="T30">
+        <v>0.02794611153783447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.1872365</v>
+      </c>
+      <c r="H31">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="I31">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="J31">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.050657</v>
+      </c>
+      <c r="N31">
+        <v>0.151971</v>
+      </c>
+      <c r="O31">
+        <v>0.002591832195685608</v>
+      </c>
+      <c r="P31">
+        <v>0.002595309718555482</v>
+      </c>
+      <c r="Q31">
+        <v>1.8837938393805</v>
+      </c>
+      <c r="R31">
+        <v>11.302763036283</v>
+      </c>
+      <c r="S31">
+        <v>0.000179144980884114</v>
+      </c>
+      <c r="T31">
+        <v>0.0001308667550261385</v>
       </c>
     </row>
   </sheetData>
